--- a/器材清單.xlsx
+++ b/器材清單.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/1T/GitHub/Arduino/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klou/Documents/GitHub/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183B5B86-DCC2-6C44-99FD-BA4135F4CEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A4055-0CD6-024F-B538-908ADE45FFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="1800" windowWidth="28260" windowHeight="17560" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
+    <workbookView xWindow="5060" yWindow="500" windowWidth="31660" windowHeight="18860" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>微動開關</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>電阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七段顯示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麵包板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,7 +55,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>motor</t>
+    <t>若干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七段顯示器（共陰共陽皆可）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超音波感測器模組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按鈕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電阻 220 Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步進馬達28BYJ-48 + UNL2003驅動板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減速馬達</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG90舵機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少3個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少1個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可調電阻10K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少1公尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110V家用電線及插頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 5mm（顏色不拘）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,12 +140,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,8 +168,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,62 +489,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9407DA-9485-FF49-9F13-7F58D5BC43CF}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/器材清單.xlsx
+++ b/器材清單.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klou/Documents/GitHub/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51A4055-0CD6-024F-B538-908ADE45FFB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F97967F-B9A0-7247-BE64-D4576B28226C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="500" windowWidth="31660" windowHeight="18860" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
+    <workbookView xWindow="9900" yWindow="3440" windowWidth="25600" windowHeight="15540" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>微動開關</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,9 @@
   <si>
     <t>LED 5mm（顏色不拘）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTP224 四路電容式數字觸控模組</t>
   </si>
 </sst>
 </file>
@@ -489,15 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9407DA-9485-FF49-9F13-7F58D5BC43CF}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -552,33 +555,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -586,23 +589,23 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -610,7 +613,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -618,33 +621,41 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
+      <c r="B20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>

--- a/器材清單.xlsx
+++ b/器材清單.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klou/Documents/GitHub/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F97967F-B9A0-7247-BE64-D4576B28226C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AB6177-AA17-BD43-B9EE-631DAE898208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="3440" windowWidth="25600" windowHeight="15540" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
+    <workbookView xWindow="9900" yWindow="500" windowWidth="25600" windowHeight="20100" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>微動開關</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DHT11orDHT22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ESP8266-S01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +116,22 @@
   </si>
   <si>
     <t>TTP224 四路電容式數字觸控模組</t>
+  </si>
+  <si>
+    <t>公公、公母若干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少2個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID 模組套件 RC522 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9407DA-9485-FF49-9F13-7F58D5BC43CF}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -505,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -517,10 +529,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -528,23 +540,23 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -552,15 +564,15 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -568,99 +580,102 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" display="https://www.taiwaniot.com.tw/product/rfid-%e6%a8%a1%e7%b5%84%e5%a5%97%e4%bb%b6-rc522-rfid-%e5%b0%84%e9%a0%bbic%e5%8d%a1%e6%84%9f%e6%87%89%e6%a8%a1%e5%a1%8a%e5%90%abs50%e5%be%a9%e6%97%a6%e5%8d%a1%e3%80%81%e9%91%b0%e5%8c%99%e6%89%a3/" xr:uid="{0713F068-B7D6-FC47-A7F2-4621C5A8166D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/器材清單.xlsx
+++ b/器材清單.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klou/Documents/GitHub/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AB6177-AA17-BD43-B9EE-631DAE898208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860BBEF9-07FA-DE45-97E6-F4D406AEB631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="500" windowWidth="25600" windowHeight="20100" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>微動開關</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LED 5mm（顏色不拘）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TTP224 四路電容式數字觸控模組</t>
   </si>
   <si>
@@ -131,6 +127,14 @@
   </si>
   <si>
     <t>RFID 模組套件 RC522 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 5mm（至少含紅黃綠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB轉TTL RS232模組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9407DA-9485-FF49-9F13-7F58D5BC43CF}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -569,7 +573,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -585,10 +589,10 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -596,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -609,7 +613,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -652,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -669,6 +673,14 @@
       </c>
       <c r="B23" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/器材清單.xlsx
+++ b/器材清單.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klou/Documents/GitHub/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860BBEF9-07FA-DE45-97E6-F4D406AEB631}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF885C-7298-A347-BDD6-71298D91EE7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="500" windowWidth="25600" windowHeight="20100" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>微動開關</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>USB轉TTL RS232模組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電阻 10K Ω</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9407DA-9485-FF49-9F13-7F58D5BC43CF}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -549,7 +553,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -557,15 +561,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -573,63 +577,63 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -637,7 +641,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -645,48 +649,56 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
+      <c r="B20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A11" r:id="rId1" display="https://www.taiwaniot.com.tw/product/rfid-%e6%a8%a1%e7%b5%84%e5%a5%97%e4%bb%b6-rc522-rfid-%e5%b0%84%e9%a0%bbic%e5%8d%a1%e6%84%9f%e6%87%89%e6%a8%a1%e5%a1%8a%e5%90%abs50%e5%be%a9%e6%97%a6%e5%8d%a1%e3%80%81%e9%91%b0%e5%8c%99%e6%89%a3/" xr:uid="{0713F068-B7D6-FC47-A7F2-4621C5A8166D}"/>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.taiwaniot.com.tw/product/rfid-%e6%a8%a1%e7%b5%84%e5%a5%97%e4%bb%b6-rc522-rfid-%e5%b0%84%e9%a0%bbic%e5%8d%a1%e6%84%9f%e6%87%89%e6%a8%a1%e5%a1%8a%e5%90%abs50%e5%be%a9%e6%97%a6%e5%8d%a1%e3%80%81%e9%91%b0%e5%8c%99%e6%89%a3/" xr:uid="{0713F068-B7D6-FC47-A7F2-4621C5A8166D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/器材清單.xlsx
+++ b/器材清單.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klou/Documents/GitHub/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF885C-7298-A347-BDD6-71298D91EE7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80417BB-AD4D-5645-A227-2CF7A0DE040B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="500" windowWidth="25600" windowHeight="20100" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>微動開關</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,34 +111,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>公公、公母若干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少2個</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFID 模組套件 RC522 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 5mm（至少含紅黃綠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB轉TTL RS232模組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電阻 10K Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>電阻 330 Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 矩陣 8X8 + MAX7219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TTP224 四路電容式數字觸控模組</t>
-  </si>
-  <si>
-    <t>公公、公母若干</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>至少2個</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFID 模組套件 RC522 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED 5mm（至少含紅黃綠）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB轉TTL RS232模組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>電阻 10K Ω</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9407DA-9485-FF49-9F13-7F58D5BC43CF}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -523,182 +532,268 @@
     <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1">
+        <f>SUM(D3:D50)</f>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://www.taiwaniot.com.tw/product/rfid-%e6%a8%a1%e7%b5%84%e5%a5%97%e4%bb%b6-rc522-rfid-%e5%b0%84%e9%a0%bbic%e5%8d%a1%e6%84%9f%e6%87%89%e6%a8%a1%e5%a1%8a%e5%90%abs50%e5%be%a9%e6%97%a6%e5%8d%a1%e3%80%81%e9%91%b0%e5%8c%99%e6%89%a3/" xr:uid="{0713F068-B7D6-FC47-A7F2-4621C5A8166D}"/>
+    <hyperlink ref="A13" r:id="rId1" display="https://www.taiwaniot.com.tw/product/rfid-%e6%a8%a1%e7%b5%84%e5%a5%97%e4%bb%b6-rc522-rfid-%e5%b0%84%e9%a0%bbic%e5%8d%a1%e6%84%9f%e6%87%89%e6%a8%a1%e5%a1%8a%e5%90%abs50%e5%be%a9%e6%97%a6%e5%8d%a1%e3%80%81%e9%91%b0%e5%8c%99%e6%89%a3/" xr:uid="{0713F068-B7D6-FC47-A7F2-4621C5A8166D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/器材清單.xlsx
+++ b/器材清單.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klou/Documents/GitHub/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80417BB-AD4D-5645-A227-2CF7A0DE040B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6D874-274A-414F-86CE-FDB21630BC40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="500" windowWidth="25600" windowHeight="20100" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
+    <workbookView xWindow="5140" yWindow="500" windowWidth="25600" windowHeight="20100" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>微動開關</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ESP8266-S01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麵包板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>七段顯示器（共陰共陽皆可）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超音波感測器模組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按鈕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,14 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LED 5mm（至少含紅黃綠）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USB轉TTL RS232模組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電阻 10K Ω</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,7 +127,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TTP224 四路電容式數字觸控模組</t>
+    <t>超音波測距模組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED 3mm or 5mm（至少含紅黃綠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七段顯示器（共陰共陽皆可,建議共陰）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,27 +509,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9407DA-9485-FF49-9F13-7F58D5BC43CF}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1">
-        <f>SUM(D3:D50)</f>
-        <v>930</v>
+        <f>SUM(D3:D47)</f>
+        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -550,10 +538,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -564,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -572,10 +560,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -583,10 +571,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -594,10 +582,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -605,13 +593,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -619,40 +607,40 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>50</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -660,140 +648,107 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>60</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://www.taiwaniot.com.tw/product/rfid-%e6%a8%a1%e7%b5%84%e5%a5%97%e4%bb%b6-rc522-rfid-%e5%b0%84%e9%a0%bbic%e5%8d%a1%e6%84%9f%e6%87%89%e6%a8%a1%e5%a1%8a%e5%90%abs50%e5%be%a9%e6%97%a6%e5%8d%a1%e3%80%81%e9%91%b0%e5%8c%99%e6%89%a3/" xr:uid="{0713F068-B7D6-FC47-A7F2-4621C5A8166D}"/>
+    <hyperlink ref="A11" r:id="rId1" display="https://www.taiwaniot.com.tw/product/rfid-%e6%a8%a1%e7%b5%84%e5%a5%97%e4%bb%b6-rc522-rfid-%e5%b0%84%e9%a0%bbic%e5%8d%a1%e6%84%9f%e6%87%89%e6%a8%a1%e5%a1%8a%e5%90%abs50%e5%be%a9%e6%97%a6%e5%8d%a1%e3%80%81%e9%91%b0%e5%8c%99%e6%89%a3/" xr:uid="{0713F068-B7D6-FC47-A7F2-4621C5A8166D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/器材清單.xlsx
+++ b/器材清單.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klou/Documents/GitHub/Arduino/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuo-liangou/Documents/GitHub/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80417BB-AD4D-5645-A227-2CF7A0DE040B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC93F0-8FD1-3048-9FAD-84FB2CED5E33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9900" yWindow="500" windowWidth="25600" windowHeight="20100" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
+    <workbookView xWindow="3200" yWindow="500" windowWidth="25600" windowHeight="16140" xr2:uid="{223533A4-E030-AC40-836C-C5A01AF18B49}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
-  <si>
-    <t>微動開關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>光敏電阻</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ESP8266-S01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>麵包板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>USB轉TTL RS232模組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>電阻 10K Ω</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,7 +135,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TTP224 四路電容式數字觸控模組</t>
+    <t>參考估價</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以市價為準</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,11 +198,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9407DA-9485-FF49-9F13-7F58D5BC43CF}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -534,26 +535,33 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1">
-        <f>SUM(D3:D50)</f>
-        <v>930</v>
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2">
+        <f>SUM(D3:D47)</f>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -561,10 +569,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -572,10 +580,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -583,10 +591,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -594,10 +602,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -605,35 +613,35 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -641,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -649,151 +657,107 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" display="https://www.taiwaniot.com.tw/product/rfid-%e6%a8%a1%e7%b5%84%e5%a5%97%e4%bb%b6-rc522-rfid-%e5%b0%84%e9%a0%bbic%e5%8d%a1%e6%84%9f%e6%87%89%e6%a8%a1%e5%a1%8a%e5%90%abs50%e5%be%a9%e6%97%a6%e5%8d%a1%e3%80%81%e9%91%b0%e5%8c%99%e6%89%a3/" xr:uid="{0713F068-B7D6-FC47-A7F2-4621C5A8166D}"/>
+    <hyperlink ref="A10" r:id="rId1" display="https://www.taiwaniot.com.tw/product/rfid-%e6%a8%a1%e7%b5%84%e5%a5%97%e4%bb%b6-rc522-rfid-%e5%b0%84%e9%a0%bbic%e5%8d%a1%e6%84%9f%e6%87%89%e6%a8%a1%e5%a1%8a%e5%90%abs50%e5%be%a9%e6%97%a6%e5%8d%a1%e3%80%81%e9%91%b0%e5%8c%99%e6%89%a3/" xr:uid="{0713F068-B7D6-FC47-A7F2-4621C5A8166D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
